--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H2">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I2">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J2">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>21641.587584015</v>
+        <v>58903.53822576379</v>
       </c>
       <c r="R2">
-        <v>194774.288256135</v>
+        <v>530131.8440318741</v>
       </c>
       <c r="S2">
-        <v>0.102697311196032</v>
+        <v>0.2027428013018901</v>
       </c>
       <c r="T2">
-        <v>0.102697311196032</v>
+        <v>0.2027428013018901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H3">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I3">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J3">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>33248.05126545989</v>
+        <v>48507.4600757431</v>
       </c>
       <c r="R3">
-        <v>299232.461389139</v>
+        <v>436567.1406816879</v>
       </c>
       <c r="S3">
-        <v>0.1577742600544048</v>
+        <v>0.1669600610765047</v>
       </c>
       <c r="T3">
-        <v>0.1577742600544048</v>
+        <v>0.1669600610765047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H4">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I4">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J4">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>16613.81876216633</v>
+        <v>27985.48953229003</v>
       </c>
       <c r="R4">
-        <v>149524.368859497</v>
+        <v>251869.4057906103</v>
       </c>
       <c r="S4">
-        <v>0.0788386946636442</v>
+        <v>0.09632454542602532</v>
       </c>
       <c r="T4">
-        <v>0.0788386946636442</v>
+        <v>0.09632454542602532</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H5">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I5">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J5">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>26443.84530600834</v>
+        <v>28286.46422624731</v>
       </c>
       <c r="R5">
-        <v>237994.607754075</v>
+        <v>254578.1780362258</v>
       </c>
       <c r="S5">
-        <v>0.125485794425579</v>
+        <v>0.09736048408797801</v>
       </c>
       <c r="T5">
-        <v>0.125485794425579</v>
+        <v>0.09736048408797801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H6">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I6">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J6">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>13283.3182365455</v>
+        <v>21306.25407300902</v>
       </c>
       <c r="R6">
-        <v>119549.8641289095</v>
+        <v>191756.2866570812</v>
       </c>
       <c r="S6">
-        <v>0.06303424189000084</v>
+        <v>0.07333497725476647</v>
       </c>
       <c r="T6">
-        <v>0.06303424189000086</v>
+        <v>0.07333497725476647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H7">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I7">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J7">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>17437.96565133793</v>
+        <v>35647.20325034338</v>
       </c>
       <c r="R7">
-        <v>156941.6908620413</v>
+        <v>320824.8292530905</v>
       </c>
       <c r="S7">
-        <v>0.08274957547217655</v>
+        <v>0.1226957507688622</v>
       </c>
       <c r="T7">
-        <v>0.08274957547217657</v>
+        <v>0.1226957507688622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H8">
         <v>169.980652</v>
       </c>
       <c r="I8">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J8">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>5371.380160827618</v>
+        <v>10020.64825141449</v>
       </c>
       <c r="R8">
-        <v>48342.42144744856</v>
+        <v>90185.83426273038</v>
       </c>
       <c r="S8">
-        <v>0.0254891790071885</v>
+        <v>0.03449053076516298</v>
       </c>
       <c r="T8">
-        <v>0.0254891790071885</v>
+        <v>0.03449053076516298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H9">
         <v>169.980652</v>
       </c>
       <c r="I9">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J9">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
-        <v>8252.071261416153</v>
+        <v>8252.071261416151</v>
       </c>
       <c r="R9">
-        <v>74268.64135274538</v>
+        <v>74268.64135274537</v>
       </c>
       <c r="S9">
-        <v>0.03915912023808484</v>
+        <v>0.02840318416306202</v>
       </c>
       <c r="T9">
-        <v>0.03915912023808484</v>
+        <v>0.02840318416306202</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H10">
         <v>169.980652</v>
       </c>
       <c r="I10">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J10">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>4123.502314617625</v>
+        <v>4760.881182924631</v>
       </c>
       <c r="R10">
-        <v>37111.52083155863</v>
+        <v>42847.93064632168</v>
       </c>
       <c r="S10">
-        <v>0.01956753860029344</v>
+        <v>0.01638669622853679</v>
       </c>
       <c r="T10">
-        <v>0.01956753860029344</v>
+        <v>0.01638669622853679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H11">
         <v>169.980652</v>
       </c>
       <c r="I11">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J11">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>6563.286796833791</v>
+        <v>4812.082887127245</v>
       </c>
       <c r="R11">
-        <v>59069.58117150411</v>
+        <v>43308.74598414521</v>
       </c>
       <c r="S11">
-        <v>0.03114521538803855</v>
+        <v>0.0165629297325698</v>
       </c>
       <c r="T11">
-        <v>0.03114521538803855</v>
+        <v>0.0165629297325698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H12">
         <v>169.980652</v>
       </c>
       <c r="I12">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J12">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>3296.881606709891</v>
+        <v>3624.612103989143</v>
       </c>
       <c r="R12">
-        <v>29671.93446038902</v>
+        <v>32621.50893590229</v>
       </c>
       <c r="S12">
-        <v>0.01564491860989181</v>
+        <v>0.01247571934947152</v>
       </c>
       <c r="T12">
-        <v>0.01564491860989181</v>
+        <v>0.01247571934947152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H13">
         <v>169.980652</v>
       </c>
       <c r="I13">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J13">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>4328.053216113125</v>
+        <v>6064.289101773026</v>
       </c>
       <c r="R13">
-        <v>38952.47894501813</v>
+        <v>54578.60191595724</v>
       </c>
       <c r="S13">
-        <v>0.02053820803499925</v>
+        <v>0.02087295597907258</v>
       </c>
       <c r="T13">
-        <v>0.02053820803499925</v>
+        <v>0.02087295597907258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H14">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I14">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J14">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>61.31894522302532</v>
+        <v>123.8102995214564</v>
       </c>
       <c r="R14">
-        <v>551.870507007228</v>
+        <v>1114.292695693108</v>
       </c>
       <c r="S14">
-        <v>0.0002909810001384928</v>
+        <v>0.0004261483725951618</v>
       </c>
       <c r="T14">
-        <v>0.0002909810001384929</v>
+        <v>0.0004261483725951618</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H15">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I15">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J15">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>94.20452295398754</v>
+        <v>101.9586147437235</v>
       </c>
       <c r="R15">
-        <v>847.8407065858879</v>
+        <v>917.627532693512</v>
       </c>
       <c r="S15">
-        <v>0.0004470351896468657</v>
+        <v>0.0003509360522754007</v>
       </c>
       <c r="T15">
-        <v>0.0004470351896468659</v>
+        <v>0.0003509360522754007</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H16">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I16">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J16">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>47.07334148512355</v>
+        <v>58.82315299918445</v>
       </c>
       <c r="R16">
-        <v>423.660073366112</v>
+        <v>529.40837699266</v>
       </c>
       <c r="S16">
-        <v>0.0002233803588007357</v>
+        <v>0.0002024661196880027</v>
       </c>
       <c r="T16">
-        <v>0.0002233803588007358</v>
+        <v>0.0002024661196880026</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H17">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I17">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J17">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>74.92558923925554</v>
+        <v>59.45577657545257</v>
       </c>
       <c r="R17">
-        <v>674.3303031533</v>
+        <v>535.101989179073</v>
       </c>
       <c r="S17">
-        <v>0.0003555495420462293</v>
+        <v>0.0002046435759136479</v>
       </c>
       <c r="T17">
-        <v>0.0003555495420462294</v>
+        <v>0.0002046435759136479</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H18">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I18">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J18">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>37.63675193257865</v>
+        <v>44.78395997790322</v>
       </c>
       <c r="R18">
-        <v>338.7307673932079</v>
+        <v>403.055639801129</v>
       </c>
       <c r="S18">
-        <v>0.0001786002626019366</v>
+        <v>0.0001541439745862414</v>
       </c>
       <c r="T18">
-        <v>0.0001786002626019367</v>
+        <v>0.0001541439745862414</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H19">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I19">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J19">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>49.40846675061778</v>
+        <v>74.92743296016189</v>
       </c>
       <c r="R19">
-        <v>444.67620075556</v>
+        <v>674.3468966414571</v>
       </c>
       <c r="S19">
-        <v>0.0002344613890228118</v>
+        <v>0.0002578961826449062</v>
       </c>
       <c r="T19">
-        <v>0.0002344613890228119</v>
+        <v>0.0002578961826449062</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H20">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I20">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J20">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>8223.190706144505</v>
+        <v>8213.968557081767</v>
       </c>
       <c r="R20">
-        <v>74008.71635530054</v>
+        <v>73925.71701373591</v>
       </c>
       <c r="S20">
-        <v>0.03902207135658608</v>
+        <v>0.02827203671001222</v>
       </c>
       <c r="T20">
-        <v>0.03902207135658609</v>
+        <v>0.02827203671001222</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H21">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I21">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J21">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>12633.31837843031</v>
+        <v>6764.258376448091</v>
       </c>
       <c r="R21">
-        <v>113699.8654058728</v>
+        <v>60878.32538803281</v>
       </c>
       <c r="S21">
-        <v>0.05994975294264016</v>
+        <v>0.0232822124659911</v>
       </c>
       <c r="T21">
-        <v>0.05994975294264017</v>
+        <v>0.0232822124659911</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H22">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I22">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J22">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>6312.780867311474</v>
+        <v>3902.514823332424</v>
       </c>
       <c r="R22">
-        <v>56815.02780580326</v>
+        <v>35122.63340999182</v>
       </c>
       <c r="S22">
-        <v>0.02995647240415475</v>
+        <v>0.01343224551931077</v>
       </c>
       <c r="T22">
-        <v>0.02995647240415475</v>
+        <v>0.01343224551931077</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H23">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I23">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J23">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>10047.91271023512</v>
+        <v>3944.485080928275</v>
       </c>
       <c r="R23">
-        <v>90431.21439211605</v>
+        <v>35500.36572835447</v>
       </c>
       <c r="S23">
-        <v>0.04768104994458738</v>
+        <v>0.01357670488206978</v>
       </c>
       <c r="T23">
-        <v>0.04768104994458738</v>
+        <v>0.01357670488206978</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H24">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I24">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J24">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>5047.284939031073</v>
+        <v>2971.110162417109</v>
       </c>
       <c r="R24">
-        <v>45425.56445127966</v>
+        <v>26739.99146175398</v>
       </c>
       <c r="S24">
-        <v>0.02395122770297961</v>
+        <v>0.01022640091663437</v>
       </c>
       <c r="T24">
-        <v>0.02395122770297962</v>
+        <v>0.01022640091663437</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H25">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I25">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J25">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>6625.933357313616</v>
+        <v>4970.92391163276</v>
       </c>
       <c r="R25">
-        <v>59633.40021582255</v>
+        <v>44738.31520469484</v>
       </c>
       <c r="S25">
-        <v>0.03144249641199216</v>
+        <v>0.01710965197099426</v>
       </c>
       <c r="T25">
-        <v>0.03144249641199216</v>
+        <v>0.01710965197099426</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H26">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I26">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J26">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>76.04926207090865</v>
+        <v>216.6586950561644</v>
       </c>
       <c r="R26">
-        <v>684.443358638178</v>
+        <v>1949.92825550548</v>
       </c>
       <c r="S26">
-        <v>0.0003608817838712256</v>
+        <v>0.0007457275417605726</v>
       </c>
       <c r="T26">
-        <v>0.0003608817838712257</v>
+        <v>0.0007457275417605726</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H27">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I27">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J27">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>116.8347633563431</v>
+        <v>178.4198932196356</v>
       </c>
       <c r="R27">
-        <v>1051.512870207088</v>
+        <v>1605.77903897672</v>
       </c>
       <c r="S27">
-        <v>0.0005544240229299811</v>
+        <v>0.0006141116484495183</v>
       </c>
       <c r="T27">
-        <v>0.0005544240229299812</v>
+        <v>0.0006141116484495183</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H28">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I28">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J28">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>58.38151439387911</v>
+        <v>102.9360854238445</v>
       </c>
       <c r="R28">
-        <v>525.433629544912</v>
+        <v>926.4247688146</v>
       </c>
       <c r="S28">
-        <v>0.0002770418079786504</v>
+        <v>0.0003543004536313704</v>
       </c>
       <c r="T28">
-        <v>0.0002770418079786504</v>
+        <v>0.0003543004536313704</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H29">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I29">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J29">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>92.92455620606111</v>
+        <v>104.0431290141256</v>
       </c>
       <c r="R29">
-        <v>836.3210058545501</v>
+        <v>936.3881611271302</v>
       </c>
       <c r="S29">
-        <v>0.0004409612755718436</v>
+        <v>0.0003581108379549174</v>
       </c>
       <c r="T29">
-        <v>0.0004409612755718437</v>
+        <v>0.0003581108379549174</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H30">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I30">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J30">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>46.67802423554533</v>
+        <v>78.36855548983223</v>
       </c>
       <c r="R30">
-        <v>420.102218119908</v>
+        <v>705.31699940849</v>
       </c>
       <c r="S30">
-        <v>0.0002215044327189042</v>
+        <v>0.0002697403407770447</v>
       </c>
       <c r="T30">
-        <v>0.0002215044327189043</v>
+        <v>0.0002697403407770447</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H31">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I31">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J31">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>61.27759410689556</v>
+        <v>131.1173618980189</v>
       </c>
       <c r="R31">
-        <v>551.4983469620601</v>
+        <v>1180.05625708217</v>
       </c>
       <c r="S31">
-        <v>0.0002907847738484854</v>
+        <v>0.0004512988871505667</v>
       </c>
       <c r="T31">
-        <v>0.0002907847738484855</v>
+        <v>0.0004512988871505667</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H32">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I32">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J32">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>70.79172553434933</v>
+        <v>85.36595112503024</v>
       </c>
       <c r="R32">
-        <v>637.125529809144</v>
+        <v>768.2935601252721</v>
       </c>
       <c r="S32">
-        <v>0.0003359328348293193</v>
+        <v>0.0002938249991121725</v>
       </c>
       <c r="T32">
-        <v>0.0003359328348293195</v>
+        <v>0.0002938249991121725</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H33">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I33">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J33">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>108.7575904770916</v>
+        <v>70.29943515708977</v>
       </c>
       <c r="R33">
-        <v>978.8183142938241</v>
+        <v>632.694916413808</v>
       </c>
       <c r="S33">
-        <v>0.0005160948599910598</v>
+        <v>0.0002419668638420599</v>
       </c>
       <c r="T33">
-        <v>0.0005160948599910601</v>
+        <v>0.0002419668638420599</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H34">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I34">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J34">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>54.34540757801956</v>
+        <v>40.55796992138223</v>
       </c>
       <c r="R34">
-        <v>489.108668202176</v>
+        <v>365.0217292924401</v>
       </c>
       <c r="S34">
-        <v>0.0002578889932380667</v>
+        <v>0.0001395983447626284</v>
       </c>
       <c r="T34">
-        <v>0.0002578889932380667</v>
+        <v>0.0001395983447626284</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H35">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I35">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J35">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>86.50037487815557</v>
+        <v>40.99415748817579</v>
       </c>
       <c r="R35">
-        <v>778.5033739034001</v>
+        <v>368.947417393582</v>
       </c>
       <c r="S35">
-        <v>0.0004104761669147061</v>
+        <v>0.0001410996788394683</v>
       </c>
       <c r="T35">
-        <v>0.0004104761669147062</v>
+        <v>0.0001410996788394683</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H36">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I36">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J36">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>43.45101832924266</v>
+        <v>30.87808811896511</v>
       </c>
       <c r="R36">
-        <v>391.059164963184</v>
+        <v>277.902793070686</v>
       </c>
       <c r="S36">
-        <v>0.0002061911000669235</v>
+        <v>0.0001062807137338891</v>
       </c>
       <c r="T36">
-        <v>0.0002061911000669235</v>
+        <v>0.0001062807137338891</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H37">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I37">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J37">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>57.04127174009778</v>
+        <v>51.66170831282645</v>
       </c>
       <c r="R37">
-        <v>513.3714456608801</v>
+        <v>464.9553748154381</v>
       </c>
       <c r="S37">
-        <v>0.0002706818625098049</v>
+        <v>0.0001778168133676279</v>
       </c>
       <c r="T37">
-        <v>0.000270681862509805</v>
+        <v>0.0001778168133676279</v>
       </c>
     </row>
   </sheetData>
